--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="75" windowWidth="23250" windowHeight="13110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2676" windowWidth="22620" windowHeight="6744" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="정규화" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A13:H27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="604">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2007,6 +2008,22 @@
   </si>
   <si>
     <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">company와 site쪽에도 검색 항목 바로 완성이아니라 고를 수있도록 구현.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 저장안됨..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2423,10 +2440,10 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2499,14 +2516,14 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2598,16 +2615,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2708,11 +2725,11 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7596,13 +7613,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -24119,24 +24136,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24254,7 +24271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.899999999999999" customHeight="1">
+    <row r="19" spans="2:7" ht="16.95" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
@@ -24310,13 +24327,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24347,23 +24364,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A3:H33"/>
+  <dimension ref="A3:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="9"/>
-    <col min="5" max="5" width="8.75" style="6"/>
-    <col min="6" max="6" width="47.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="6"/>
+    <col min="1" max="1" width="13.59765625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="42.09765625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="9"/>
+    <col min="5" max="5" width="8.69921875" style="6"/>
+    <col min="6" max="6" width="47.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.19921875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.09765625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
@@ -24377,7 +24394,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" ht="34.799999999999997">
       <c r="A5" s="7">
         <v>42816</v>
       </c>
@@ -24394,7 +24411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.5">
+    <row r="6" spans="1:8" ht="52.2">
       <c r="B6" s="8" t="s">
         <v>110</v>
       </c>
@@ -24411,7 +24428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="99">
+    <row r="7" spans="1:8" ht="104.4">
       <c r="B7" s="8" t="s">
         <v>112</v>
       </c>
@@ -24431,7 +24448,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33">
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <v>42817</v>
       </c>
@@ -24456,7 +24473,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="49.5">
+    <row r="12" spans="1:8" ht="34.799999999999997">
       <c r="A12" s="7">
         <v>42818</v>
       </c>
@@ -24484,7 +24501,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
+    <row r="16" spans="1:8" ht="34.799999999999997">
       <c r="B16" s="8" t="s">
         <v>173</v>
       </c>
@@ -24503,76 +24520,95 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="6" t="s">
+    <row r="20" spans="1:3" ht="34.799999999999997">
+      <c r="A20" s="7">
+        <v>42846</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7">
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
         <v>42816</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="8" t="s">
+    <row r="35" spans="1:3">
+      <c r="B35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="8" t="s">
+    <row r="36" spans="1:3">
+      <c r="B36" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="33">
-      <c r="B28" s="8" t="s">
+    <row r="37" spans="1:3" ht="34.799999999999997">
+      <c r="B37" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33">
-      <c r="B29" s="8" t="s">
+    <row r="38" spans="1:3" ht="34.799999999999997">
+      <c r="B38" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" ht="49.5">
-      <c r="A32" s="7">
+    <row r="39" spans="1:3">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="52.2">
+      <c r="A41" s="7">
         <v>42817</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="8" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -24581,7 +24617,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:B12 B14 B19:B1048576 B17" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B12 B14 B19 B17 B30:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24595,9 +24631,9 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="18.19921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="16384" width="18.25" style="11"/>
+    <col min="1" max="16384" width="18.19921875" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="29.25" customHeight="1">

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -18,7 +18,6 @@
     <sheet name="정규화" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A13:H27"/>
 </workbook>
 </file>
 
@@ -24367,7 +24366,7 @@
   <dimension ref="A3:H42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2676" windowWidth="22620" windowHeight="6744" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="7" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="정규화" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="607">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2023,6 +2024,18 @@
   </si>
   <si>
     <t>한글 저장안됨..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">선택했을때 배경에 뭐가 남음.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걍 불투명 포기함 ㅋ 짜증나!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2439,10 +2452,10 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2515,14 +2528,14 @@
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2618,12 +2631,12 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="28.09765625" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2724,11 +2737,11 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7612,13 +7625,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -24135,24 +24148,24 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -24270,7 +24283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.95" customHeight="1">
+    <row r="19" spans="2:7" ht="16.899999999999999" customHeight="1">
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
@@ -24329,10 +24342,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24365,21 +24378,21 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A3:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="42.09765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" style="9"/>
-    <col min="5" max="5" width="8.69921875" style="6"/>
-    <col min="6" max="6" width="47.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.19921875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.09765625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="6"/>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="42.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="9"/>
+    <col min="5" max="5" width="8.75" style="6"/>
+    <col min="6" max="6" width="47.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8">
@@ -24393,7 +24406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997">
+    <row r="5" spans="1:8" ht="33">
       <c r="A5" s="7">
         <v>42816</v>
       </c>
@@ -24410,7 +24423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="52.2">
+    <row r="6" spans="1:8" ht="49.5">
       <c r="B6" s="8" t="s">
         <v>110</v>
       </c>
@@ -24427,7 +24440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="104.4">
+    <row r="7" spans="1:8" ht="99">
       <c r="B7" s="8" t="s">
         <v>112</v>
       </c>
@@ -24447,7 +24460,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="33">
       <c r="A9" s="7">
         <v>42817</v>
       </c>
@@ -24472,7 +24485,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.799999999999997">
+    <row r="12" spans="1:8" ht="49.5">
       <c r="A12" s="7">
         <v>42818</v>
       </c>
@@ -24500,7 +24513,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.799999999999997">
+    <row r="16" spans="1:8" ht="33">
       <c r="B16" s="8" t="s">
         <v>173</v>
       </c>
@@ -24508,7 +24521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="7">
         <v>42825</v>
       </c>
@@ -24519,7 +24532,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34.799999999999997">
+    <row r="20" spans="1:4" ht="33">
       <c r="A20" s="7">
         <v>42846</v>
       </c>
@@ -24530,12 +24543,26 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="B21" s="8" t="s">
         <v>602</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="49.5">
+      <c r="A23" s="7">
+        <v>42857</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -24570,7 +24597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.799999999999997">
+    <row r="37" spans="1:3" ht="33">
       <c r="B37" s="8" t="s">
         <v>113</v>
       </c>
@@ -24578,7 +24605,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34.799999999999997">
+    <row r="38" spans="1:3" ht="33">
       <c r="B38" s="8" t="s">
         <v>114</v>
       </c>
@@ -24592,7 +24619,7 @@
     <row r="40" spans="1:3">
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="52.2">
+    <row r="41" spans="1:3" ht="49.5">
       <c r="A41" s="7">
         <v>42817</v>
       </c>
@@ -24630,9 +24657,9 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.19921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="18.19921875" style="11"/>
+    <col min="1" max="16384" width="18.25" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="29.25" customHeight="1">

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -18,12 +18,11 @@
     <sheet name="정규화" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="616">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2035,7 +2034,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>걍 불투명 포기함 ㅋ 짜증나!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear 햇을때 order number 삭제 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">history 클릭했을때 site 불러오기. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear와 New의 기능 구분이 안됨. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장했을때 히스토리 갱신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24376,17 +24411,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A3:H42"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="9"/>
     <col min="5" max="5" width="8.75" style="6"/>
     <col min="6" max="6" width="47.25" style="6" bestFit="1" customWidth="1"/>
@@ -24395,246 +24431,299 @@
     <col min="9" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="C3" s="9" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="C1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33">
-      <c r="A5" s="7">
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="7">
         <v>42816</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="B5" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.5">
-      <c r="B6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="7">
+        <v>42817</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="B8" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="99">
-      <c r="B7" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="7">
+        <v>42818</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="7">
+        <v>42825</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1">
+      <c r="A18" s="7">
+        <v>42846</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1">
+      <c r="A21" s="7">
+        <v>42857</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1">
+      <c r="A23" s="7">
+        <v>42858</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1">
+      <c r="B24" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1">
+      <c r="B25" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
+      <c r="C32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="A33" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="B35" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33">
-      <c r="A9" s="7">
+      <c r="C35" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="B36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1">
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1">
+      <c r="A40" s="7">
         <v>42817</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="8" t="s">
+      <c r="C40" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1">
+      <c r="B41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="49.5">
-      <c r="A12" s="7">
-        <v>42818</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33">
-      <c r="B16" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7">
-        <v>42825</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="33">
-      <c r="A20" s="7">
-        <v>42846</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="49.5">
-      <c r="A23" s="7">
-        <v>42857</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="C33" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7">
-        <v>42816</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="B35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="33">
-      <c r="B37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="33">
-      <c r="B38" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" ht="49.5">
-      <c r="A41" s="7">
-        <v>42817</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -24643,7 +24732,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:B12 B14 B19 B17 B30:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B10 B12 B17 B15 B29:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="627">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2071,6 +2071,50 @@
   </si>
   <si>
     <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Item은 존재하는 ITEM 이름과 일치해야만 함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버그 존재. 아이템 항목에서 뭐가하나 빠졋을때.. 에러남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 첨부하는 기능.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save 동작할때 item을 수정하도록 변경 제어 가능하도록..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMA 정보 저장할때 날짜 저장될수 있도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA 추가한 형식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24177,10 +24221,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24254,110 +24298,118 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="1" t="s">
-        <v>52</v>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:11">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.899999999999999" customHeight="1">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:2" ht="16.899999999999999" customHeight="1">
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>92</v>
       </c>
     </row>
@@ -24411,11 +24463,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -24653,77 +24705,118 @@
       <c r="B26" s="8" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="C32" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
+      <c r="B28" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1">
+      <c r="A30" s="7">
+        <v>42865</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1">
+      <c r="A31" s="7">
+        <v>42867</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1">
+      <c r="C34" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
-      <c r="A33" s="7">
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="A35" s="7">
         <v>42816</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
-      <c r="B35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="B37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
+      <c r="B39" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1">
-      <c r="C39" s="10"/>
-    </row>
     <row r="40" spans="1:3" ht="30" customHeight="1">
-      <c r="A40" s="7">
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="A42" s="7">
         <v>42817</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1">
-      <c r="B41" s="8" t="s">
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="B43" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -24732,7 +24825,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:B10 B12 B17 B15 B29:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B10 B12 B17 B15 B33:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="630">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t>    `rmaShipTo` CHAR(100), </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2115,6 +2111,22 @@
   </si>
   <si>
     <t>DA 추가한 형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">같은 아이템이 두번 나갈수도있으니까, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시리얼 + RMA넘버가 primary key </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2545,51 +2557,51 @@
     </row>
     <row r="10" spans="1:6">
       <c r="D10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2720,10 +2732,10 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -2753,7 +2765,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
@@ -2769,7 +2781,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
@@ -2777,7 +2789,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
@@ -2798,7 +2810,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2843,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2839,7 +2851,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2849,7 +2861,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2864,12 +2876,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2879,10 +2891,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D17" t="str">
         <f>"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A17 &amp;"' , '" &amp;B17 &amp; "');"</f>
@@ -2891,10 +2903,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ref="D18:D81" si="0">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A18 &amp;"' , '" &amp;B18 &amp; "');"</f>
@@ -2903,10 +2915,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -2915,10 +2927,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -2927,10 +2939,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -2939,10 +2951,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -2951,10 +2963,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -2963,10 +2975,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -2975,10 +2987,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -2987,10 +2999,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -2999,10 +3011,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -3011,10 +3023,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -3023,10 +3035,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -3035,10 +3047,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -3047,10 +3059,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -3059,10 +3071,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -3071,10 +3083,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -3083,10 +3095,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -3095,10 +3107,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -3107,10 +3119,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -3119,10 +3131,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -3131,10 +3143,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -3143,10 +3155,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -3155,10 +3167,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -3167,10 +3179,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -3179,10 +3191,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -3191,10 +3203,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -3203,10 +3215,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -3215,10 +3227,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -3227,10 +3239,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -3239,10 +3251,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -3251,10 +3263,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -3263,10 +3275,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -3275,10 +3287,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -3287,10 +3299,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -3299,10 +3311,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -3311,10 +3323,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -3323,10 +3335,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -3335,10 +3347,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -3347,10 +3359,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -3359,10 +3371,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -3371,10 +3383,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -3383,10 +3395,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -3395,10 +3407,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -3407,10 +3419,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -3419,10 +3431,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -3431,10 +3443,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -3443,10 +3455,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -3455,10 +3467,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -3467,10 +3479,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -3479,10 +3491,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="0"/>
@@ -3491,10 +3503,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="0"/>
@@ -3503,10 +3515,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="0"/>
@@ -3515,10 +3527,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="0"/>
@@ -3527,10 +3539,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="0"/>
@@ -3539,10 +3551,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="0"/>
@@ -3551,10 +3563,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="0"/>
@@ -3563,10 +3575,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="0"/>
@@ -3575,10 +3587,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="0"/>
@@ -3587,10 +3599,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="0"/>
@@ -3599,10 +3611,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="0"/>
@@ -3611,10 +3623,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="0"/>
@@ -3623,10 +3635,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="0"/>
@@ -3635,10 +3647,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="0"/>
@@ -3647,10 +3659,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="0"/>
@@ -3659,10 +3671,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ref="D82:D145" si="1">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A82 &amp;"' , '" &amp;B82 &amp; "');"</f>
@@ -3671,10 +3683,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -3683,10 +3695,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -3695,10 +3707,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -3707,10 +3719,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -3719,10 +3731,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -3731,10 +3743,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -3743,10 +3755,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
@@ -3755,10 +3767,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -3767,10 +3779,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -3779,10 +3791,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -3791,10 +3803,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -3803,10 +3815,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -3815,10 +3827,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -3827,10 +3839,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -3839,10 +3851,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -3851,10 +3863,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -3863,10 +3875,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -3875,10 +3887,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -3887,10 +3899,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -3899,10 +3911,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -3911,10 +3923,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -3923,10 +3935,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -3935,10 +3947,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -3947,10 +3959,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -3959,10 +3971,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -3971,10 +3983,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -3983,10 +3995,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -3995,10 +4007,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -4007,10 +4019,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -4019,10 +4031,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -4031,10 +4043,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -4043,10 +4055,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -4055,10 +4067,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -4067,10 +4079,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -4079,10 +4091,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -4091,10 +4103,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -4103,10 +4115,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
@@ -4115,10 +4127,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
@@ -4127,10 +4139,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
@@ -4139,10 +4151,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
@@ -4151,10 +4163,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
@@ -4163,10 +4175,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
@@ -4175,10 +4187,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
@@ -4187,10 +4199,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
@@ -4199,10 +4211,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
@@ -4211,10 +4223,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -4223,10 +4235,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
@@ -4235,10 +4247,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="1"/>
@@ -4247,10 +4259,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="1"/>
@@ -4259,10 +4271,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="1"/>
@@ -4271,10 +4283,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="1"/>
@@ -4283,10 +4295,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="1"/>
@@ -4295,10 +4307,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="1"/>
@@ -4307,10 +4319,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="1"/>
@@ -4319,10 +4331,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="1"/>
@@ -4331,10 +4343,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="1"/>
@@ -4343,10 +4355,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="1"/>
@@ -4355,10 +4367,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="1"/>
@@ -4367,10 +4379,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="1"/>
@@ -4379,10 +4391,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="1"/>
@@ -4391,10 +4403,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="1"/>
@@ -4403,10 +4415,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="1"/>
@@ -4415,10 +4427,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="1"/>
@@ -4427,10 +4439,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" ref="D146:D209" si="2">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A146 &amp;"' , '" &amp;B146 &amp; "');"</f>
@@ -4439,10 +4451,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="2"/>
@@ -4451,10 +4463,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="2"/>
@@ -4463,10 +4475,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
@@ -4475,10 +4487,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="2"/>
@@ -4487,10 +4499,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="2"/>
@@ -4499,10 +4511,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="2"/>
@@ -4511,10 +4523,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="2"/>
@@ -4523,10 +4535,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
@@ -4535,10 +4547,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
@@ -4547,10 +4559,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="2"/>
@@ -4559,10 +4571,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="2"/>
@@ -4571,10 +4583,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="2"/>
@@ -4583,10 +4595,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
@@ -4595,10 +4607,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="2"/>
@@ -4607,10 +4619,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
@@ -4619,10 +4631,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="2"/>
@@ -4631,10 +4643,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="2"/>
@@ -4643,10 +4655,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="2"/>
@@ -4655,10 +4667,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="2"/>
@@ -4667,10 +4679,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="2"/>
@@ -4679,10 +4691,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
@@ -4691,10 +4703,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="2"/>
@@ -4703,10 +4715,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="2"/>
@@ -4715,10 +4727,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="2"/>
@@ -4727,10 +4739,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
@@ -4739,10 +4751,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="2"/>
@@ -4751,10 +4763,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="2"/>
@@ -4763,10 +4775,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="2"/>
@@ -4775,10 +4787,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="2"/>
@@ -4787,10 +4799,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="2"/>
@@ -4799,10 +4811,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="2"/>
@@ -4811,10 +4823,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
@@ -4823,10 +4835,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="2"/>
@@ -4835,10 +4847,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
@@ -4847,10 +4859,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
@@ -4859,10 +4871,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
@@ -4871,10 +4883,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
@@ -4883,10 +4895,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="2"/>
@@ -4895,10 +4907,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="2"/>
@@ -4907,10 +4919,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
@@ -4919,10 +4931,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="2"/>
@@ -4931,10 +4943,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="2"/>
@@ -4943,10 +4955,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="2"/>
@@ -4955,10 +4967,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
@@ -4967,10 +4979,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="2"/>
@@ -4979,10 +4991,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
@@ -4991,10 +5003,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="2"/>
@@ -5003,10 +5015,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="2"/>
@@ -5015,10 +5027,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="2"/>
@@ -5027,10 +5039,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="2"/>
@@ -5039,10 +5051,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="2"/>
@@ -5051,10 +5063,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="2"/>
@@ -5063,10 +5075,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="2"/>
@@ -5075,10 +5087,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="2"/>
@@ -5087,10 +5099,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="2"/>
@@ -5099,10 +5111,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="2"/>
@@ -5111,10 +5123,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="2"/>
@@ -5123,10 +5135,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="2"/>
@@ -5135,10 +5147,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="2"/>
@@ -5147,10 +5159,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="2"/>
@@ -5159,10 +5171,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="2"/>
@@ -5171,10 +5183,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="2"/>
@@ -5183,10 +5195,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="2"/>
@@ -5195,10 +5207,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" ref="D210:D273" si="3">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A210 &amp;"' , '" &amp;B210 &amp; "');"</f>
@@ -5207,10 +5219,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="3"/>
@@ -5219,10 +5231,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="3"/>
@@ -5231,10 +5243,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="3"/>
@@ -5243,10 +5255,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B214" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="3"/>
@@ -5255,10 +5267,10 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B215" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="3"/>
@@ -5267,10 +5279,10 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B216" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="3"/>
@@ -5279,10 +5291,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="3"/>
@@ -5291,10 +5303,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="3"/>
@@ -5303,10 +5315,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="3"/>
@@ -5315,10 +5327,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="3"/>
@@ -5327,10 +5339,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="3"/>
@@ -5339,10 +5351,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="3"/>
@@ -5351,10 +5363,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="3"/>
@@ -5363,10 +5375,10 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="3"/>
@@ -5375,10 +5387,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="3"/>
@@ -5387,10 +5399,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="3"/>
@@ -5399,10 +5411,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B227" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="3"/>
@@ -5411,10 +5423,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="3"/>
@@ -5423,10 +5435,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B229" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="3"/>
@@ -5435,10 +5447,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="3"/>
@@ -5447,10 +5459,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="3"/>
@@ -5459,10 +5471,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="3"/>
@@ -5471,10 +5483,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="3"/>
@@ -5483,10 +5495,10 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="3"/>
@@ -5495,10 +5507,10 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="3"/>
@@ -5507,10 +5519,10 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="3"/>
@@ -5519,10 +5531,10 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="3"/>
@@ -5531,10 +5543,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="3"/>
@@ -5543,10 +5555,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="3"/>
@@ -5555,10 +5567,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="3"/>
@@ -5567,10 +5579,10 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="3"/>
@@ -5579,10 +5591,10 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="3"/>
@@ -5591,10 +5603,10 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="3"/>
@@ -5603,10 +5615,10 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="3"/>
@@ -5615,10 +5627,10 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="3"/>
@@ -5627,10 +5639,10 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="3"/>
@@ -5639,10 +5651,10 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="3"/>
@@ -5651,10 +5663,10 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="3"/>
@@ -5663,10 +5675,10 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="3"/>
@@ -5675,10 +5687,10 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="3"/>
@@ -5687,10 +5699,10 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="3"/>
@@ -5699,10 +5711,10 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="3"/>
@@ -5711,10 +5723,10 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="3"/>
@@ -5723,10 +5735,10 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="3"/>
@@ -5735,10 +5747,10 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B255" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="3"/>
@@ -5747,10 +5759,10 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="3"/>
@@ -5759,10 +5771,10 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="3"/>
@@ -5771,10 +5783,10 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="3"/>
@@ -5783,10 +5795,10 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="3"/>
@@ -5795,10 +5807,10 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="3"/>
@@ -5807,10 +5819,10 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="3"/>
@@ -5819,10 +5831,10 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="3"/>
@@ -5831,10 +5843,10 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="3"/>
@@ -5843,10 +5855,10 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="3"/>
@@ -5855,10 +5867,10 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="3"/>
@@ -5867,10 +5879,10 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="3"/>
@@ -5879,10 +5891,10 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="3"/>
@@ -5891,10 +5903,10 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="3"/>
@@ -5903,10 +5915,10 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="3"/>
@@ -5915,10 +5927,10 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="3"/>
@@ -5927,10 +5939,10 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="3"/>
@@ -5939,10 +5951,10 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B272" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D272" t="str">
         <f t="shared" si="3"/>
@@ -5951,10 +5963,10 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B273" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="3"/>
@@ -5963,10 +5975,10 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B274" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" ref="D274:D337" si="4">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A274 &amp;"' , '" &amp;B274 &amp; "');"</f>
@@ -5975,10 +5987,10 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="4"/>
@@ -5987,10 +5999,10 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D276" t="str">
         <f t="shared" si="4"/>
@@ -5999,10 +6011,10 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="4"/>
@@ -6011,10 +6023,10 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D278" t="str">
         <f t="shared" si="4"/>
@@ -6023,10 +6035,10 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="4"/>
@@ -6035,10 +6047,10 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="4"/>
@@ -6047,10 +6059,10 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="4"/>
@@ -6059,10 +6071,10 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="4"/>
@@ -6071,10 +6083,10 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B283" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="4"/>
@@ -6083,10 +6095,10 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B284" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="4"/>
@@ -6095,10 +6107,10 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B285" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="4"/>
@@ -6107,10 +6119,10 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="4"/>
@@ -6119,10 +6131,10 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B287" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="4"/>
@@ -6131,10 +6143,10 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="4"/>
@@ -6143,10 +6155,10 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B289" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="4"/>
@@ -6155,10 +6167,10 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="4"/>
@@ -6167,10 +6179,10 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="4"/>
@@ -6179,10 +6191,10 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="4"/>
@@ -6191,10 +6203,10 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="4"/>
@@ -6203,10 +6215,10 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="4"/>
@@ -6215,10 +6227,10 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="4"/>
@@ -6227,10 +6239,10 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="4"/>
@@ -6239,10 +6251,10 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="4"/>
@@ -6251,10 +6263,10 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D298" t="str">
         <f t="shared" si="4"/>
@@ -6263,10 +6275,10 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="4"/>
@@ -6275,10 +6287,10 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D300" t="str">
         <f t="shared" si="4"/>
@@ -6287,10 +6299,10 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="4"/>
@@ -6299,10 +6311,10 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D302" t="str">
         <f t="shared" si="4"/>
@@ -6311,10 +6323,10 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="4"/>
@@ -6323,10 +6335,10 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D304" t="str">
         <f t="shared" si="4"/>
@@ -6335,10 +6347,10 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="4"/>
@@ -6347,10 +6359,10 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D306" t="str">
         <f t="shared" si="4"/>
@@ -6359,10 +6371,10 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="4"/>
@@ -6371,10 +6383,10 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D308" t="str">
         <f t="shared" si="4"/>
@@ -6383,10 +6395,10 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="4"/>
@@ -6395,10 +6407,10 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D310" t="str">
         <f t="shared" si="4"/>
@@ -6407,10 +6419,10 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D311" t="str">
         <f t="shared" si="4"/>
@@ -6419,10 +6431,10 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D312" t="str">
         <f t="shared" si="4"/>
@@ -6431,10 +6443,10 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D313" t="str">
         <f t="shared" si="4"/>
@@ -6443,10 +6455,10 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D314" t="str">
         <f t="shared" si="4"/>
@@ -6455,10 +6467,10 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="4"/>
@@ -6467,10 +6479,10 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D316" t="str">
         <f t="shared" si="4"/>
@@ -6479,10 +6491,10 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" si="4"/>
@@ -6491,10 +6503,10 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D318" t="str">
         <f t="shared" si="4"/>
@@ -6503,10 +6515,10 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D319" t="str">
         <f t="shared" si="4"/>
@@ -6515,10 +6527,10 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D320" t="str">
         <f t="shared" si="4"/>
@@ -6527,10 +6539,10 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D321" t="str">
         <f t="shared" si="4"/>
@@ -6539,10 +6551,10 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D322" t="str">
         <f t="shared" si="4"/>
@@ -6551,10 +6563,10 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D323" t="str">
         <f t="shared" si="4"/>
@@ -6563,10 +6575,10 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D324" t="str">
         <f t="shared" si="4"/>
@@ -6575,10 +6587,10 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="4"/>
@@ -6587,10 +6599,10 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D326" t="str">
         <f t="shared" si="4"/>
@@ -6599,10 +6611,10 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D327" t="str">
         <f t="shared" si="4"/>
@@ -6611,10 +6623,10 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B328" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D328" t="str">
         <f t="shared" si="4"/>
@@ -6623,10 +6635,10 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D329" t="str">
         <f t="shared" si="4"/>
@@ -6635,10 +6647,10 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D330" t="str">
         <f t="shared" si="4"/>
@@ -6647,10 +6659,10 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D331" t="str">
         <f t="shared" si="4"/>
@@ -6659,10 +6671,10 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D332" t="str">
         <f t="shared" si="4"/>
@@ -6671,10 +6683,10 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="4"/>
@@ -6683,10 +6695,10 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B334" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D334" t="str">
         <f t="shared" si="4"/>
@@ -6695,10 +6707,10 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="4"/>
@@ -6707,10 +6719,10 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B336" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D336" t="str">
         <f t="shared" si="4"/>
@@ -6719,10 +6731,10 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="4"/>
@@ -6731,10 +6743,10 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B338" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D338" t="str">
         <f t="shared" ref="D338:D401" si="5">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A338 &amp;"' , '" &amp;B338 &amp; "');"</f>
@@ -6743,10 +6755,10 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B339" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D339" t="str">
         <f t="shared" si="5"/>
@@ -6755,10 +6767,10 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B340" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D340" t="str">
         <f t="shared" si="5"/>
@@ -6767,10 +6779,10 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="5"/>
@@ -6779,10 +6791,10 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D342" t="str">
         <f t="shared" si="5"/>
@@ -6791,10 +6803,10 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D343" t="str">
         <f t="shared" si="5"/>
@@ -6803,10 +6815,10 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D344" t="str">
         <f t="shared" si="5"/>
@@ -6815,10 +6827,10 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D345" t="str">
         <f t="shared" si="5"/>
@@ -6827,10 +6839,10 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="5"/>
@@ -6839,10 +6851,10 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="5"/>
@@ -6851,10 +6863,10 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D348" t="str">
         <f t="shared" si="5"/>
@@ -6863,10 +6875,10 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="5"/>
@@ -6875,10 +6887,10 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="5"/>
@@ -6887,10 +6899,10 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="5"/>
@@ -6899,10 +6911,10 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D352" t="str">
         <f t="shared" si="5"/>
@@ -6911,10 +6923,10 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="5"/>
@@ -6923,10 +6935,10 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D354" t="str">
         <f t="shared" si="5"/>
@@ -6935,10 +6947,10 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="5"/>
@@ -6947,10 +6959,10 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D356" t="str">
         <f t="shared" si="5"/>
@@ -6959,10 +6971,10 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D357" t="str">
         <f t="shared" si="5"/>
@@ -6971,10 +6983,10 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D358" t="str">
         <f t="shared" si="5"/>
@@ -6983,10 +6995,10 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="5"/>
@@ -6995,10 +7007,10 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D360" t="str">
         <f t="shared" si="5"/>
@@ -7007,10 +7019,10 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D361" t="str">
         <f t="shared" si="5"/>
@@ -7019,10 +7031,10 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D362" t="str">
         <f t="shared" si="5"/>
@@ -7031,10 +7043,10 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D363" t="str">
         <f t="shared" si="5"/>
@@ -7043,10 +7055,10 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D364" t="str">
         <f t="shared" si="5"/>
@@ -7055,10 +7067,10 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D365" t="str">
         <f t="shared" si="5"/>
@@ -7067,10 +7079,10 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D366" t="str">
         <f t="shared" si="5"/>
@@ -7079,10 +7091,10 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D367" t="str">
         <f t="shared" si="5"/>
@@ -7091,10 +7103,10 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D368" t="str">
         <f t="shared" si="5"/>
@@ -7103,10 +7115,10 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D369" t="str">
         <f t="shared" si="5"/>
@@ -7115,10 +7127,10 @@
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D370" t="str">
         <f t="shared" si="5"/>
@@ -7127,10 +7139,10 @@
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D371" t="str">
         <f t="shared" si="5"/>
@@ -7139,10 +7151,10 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D372" t="str">
         <f t="shared" si="5"/>
@@ -7151,10 +7163,10 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D373" t="str">
         <f t="shared" si="5"/>
@@ -7163,10 +7175,10 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D374" t="str">
         <f t="shared" si="5"/>
@@ -7175,10 +7187,10 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D375" t="str">
         <f t="shared" si="5"/>
@@ -7187,10 +7199,10 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B376" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D376" t="str">
         <f t="shared" si="5"/>
@@ -7199,10 +7211,10 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B377" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D377" t="str">
         <f t="shared" si="5"/>
@@ -7211,10 +7223,10 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B378" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D378" t="str">
         <f t="shared" si="5"/>
@@ -7223,10 +7235,10 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B379" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D379" t="str">
         <f t="shared" si="5"/>
@@ -7235,10 +7247,10 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B380" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D380" t="str">
         <f t="shared" si="5"/>
@@ -7247,10 +7259,10 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D381" t="str">
         <f t="shared" si="5"/>
@@ -7259,10 +7271,10 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B382" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D382" t="str">
         <f t="shared" si="5"/>
@@ -7271,10 +7283,10 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B383" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D383" t="str">
         <f t="shared" si="5"/>
@@ -7283,10 +7295,10 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B384" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D384" t="str">
         <f t="shared" si="5"/>
@@ -7295,10 +7307,10 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B385" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D385" t="str">
         <f t="shared" si="5"/>
@@ -7307,10 +7319,10 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B386" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D386" t="str">
         <f t="shared" si="5"/>
@@ -7319,10 +7331,10 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B387" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D387" t="str">
         <f t="shared" si="5"/>
@@ -7331,10 +7343,10 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B388" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D388" t="str">
         <f t="shared" si="5"/>
@@ -7343,10 +7355,10 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D389" t="str">
         <f t="shared" si="5"/>
@@ -7355,10 +7367,10 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D390" t="str">
         <f t="shared" si="5"/>
@@ -7367,10 +7379,10 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B391" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D391" t="str">
         <f t="shared" si="5"/>
@@ -7379,10 +7391,10 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B392" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D392" t="str">
         <f t="shared" si="5"/>
@@ -7391,10 +7403,10 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B393" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="5"/>
@@ -7403,10 +7415,10 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B394" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D394" t="str">
         <f t="shared" si="5"/>
@@ -7415,10 +7427,10 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D395" t="str">
         <f t="shared" si="5"/>
@@ -7427,10 +7439,10 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B396" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D396" t="str">
         <f t="shared" si="5"/>
@@ -7439,10 +7451,10 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B397" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D397" t="str">
         <f t="shared" si="5"/>
@@ -7451,10 +7463,10 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B398" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D398" t="str">
         <f t="shared" si="5"/>
@@ -7463,10 +7475,10 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B399" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D399" t="str">
         <f t="shared" si="5"/>
@@ -7475,10 +7487,10 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B400" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D400" t="str">
         <f t="shared" si="5"/>
@@ -7487,10 +7499,10 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B401" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D401" t="str">
         <f t="shared" si="5"/>
@@ -7499,10 +7511,10 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B402" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D402" t="str">
         <f t="shared" ref="D402:D417" si="6">"INSERT INTO item (`itemName`, `itemDescription`) values ('" &amp;A402 &amp;"' , '" &amp;B402 &amp; "');"</f>
@@ -7511,10 +7523,10 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B403" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D403" t="str">
         <f t="shared" si="6"/>
@@ -7523,10 +7535,10 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B404" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D404" t="str">
         <f t="shared" si="6"/>
@@ -7535,10 +7547,10 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B405" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D405" t="str">
         <f t="shared" si="6"/>
@@ -7547,10 +7559,10 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B406" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D406" t="str">
         <f t="shared" si="6"/>
@@ -7559,10 +7571,10 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B407" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D407" t="str">
         <f t="shared" si="6"/>
@@ -7571,10 +7583,10 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B408" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D408" t="str">
         <f t="shared" si="6"/>
@@ -7583,10 +7595,10 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B409" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D409" t="str">
         <f t="shared" si="6"/>
@@ -7595,10 +7607,10 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B410" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D410" t="str">
         <f t="shared" si="6"/>
@@ -7607,10 +7619,10 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B411" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D411" t="str">
         <f t="shared" si="6"/>
@@ -7619,10 +7631,10 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B412" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D412" t="str">
         <f t="shared" si="6"/>
@@ -7631,10 +7643,10 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B413" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D413" t="str">
         <f t="shared" si="6"/>
@@ -7643,10 +7655,10 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B414" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D414" t="str">
         <f t="shared" si="6"/>
@@ -7655,10 +7667,10 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B415" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D415" t="str">
         <f t="shared" si="6"/>
@@ -7667,10 +7679,10 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B416" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D416" t="str">
         <f t="shared" si="6"/>
@@ -7679,10 +7691,10 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B417" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D417" t="str">
         <f t="shared" si="6"/>
@@ -7700,8 +7712,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7718,16 +7730,19 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
         <v>185</v>
       </c>
-      <c r="E1" t="s">
-        <v>186</v>
+      <c r="F1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:16384">
@@ -7735,7 +7750,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
@@ -7743,7 +7761,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
@@ -7751,38 +7769,45 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16384">
+      <c r="A7" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:16384">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:16384">
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:16384">
       <c r="B12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:16384">
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:16384">
@@ -7797,7 +7822,7 @@
     </row>
     <row r="16" spans="1:16384">
       <c r="B16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -24184,17 +24209,17 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -24204,12 +24229,12 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -24223,7 +24248,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -24279,7 +24304,7 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -24300,10 +24325,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
         <v>625</v>
-      </c>
-      <c r="B4" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -24402,15 +24427,15 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
         <v>91</v>
-      </c>
-      <c r="G33" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -24485,13 +24510,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="C1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
@@ -24499,53 +24524,53 @@
         <v>42816</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>101</v>
-      </c>
       <c r="F5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -24553,24 +24578,24 @@
         <v>42817</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
       <c r="B8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -24578,38 +24603,38 @@
         <v>42818</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
       <c r="A13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
       <c r="B14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -24617,16 +24642,16 @@
         <v>42825</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1">
@@ -24634,18 +24659,18 @@
         <v>42846</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="B19" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1">
@@ -24653,16 +24678,16 @@
         <v>42857</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="D21" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1">
@@ -24670,59 +24695,59 @@
         <v>42858</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1">
       <c r="B24" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>611</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1">
       <c r="B25" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1">
       <c r="B26" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1">
       <c r="B27" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1">
       <c r="B28" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1">
@@ -24730,10 +24755,10 @@
         <v>42865</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1">
@@ -24741,15 +24766,15 @@
         <v>42867</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1">
       <c r="C34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1">
@@ -24757,42 +24782,42 @@
         <v>42816</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1">
       <c r="B36" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="B37" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="B39" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1">
@@ -24806,18 +24831,18 @@
         <v>42817</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1">
       <c r="B43" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -24849,66 +24874,66 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="G2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="11">
         <v>3.3</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="G3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J3" s="11">
         <v>7446</v>
@@ -24917,33 +24942,33 @@
         <v>3232</v>
       </c>
       <c r="L3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="11">
         <v>3.3</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="G4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J4" s="11">
         <v>7446</v>
@@ -24952,33 +24977,33 @@
         <v>3232</v>
       </c>
       <c r="L4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="11">
         <v>3.3</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="G5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J5" s="11">
         <v>7446</v>
@@ -24987,18 +25012,18 @@
         <v>3232</v>
       </c>
       <c r="L5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="11">
         <v>5.0999999999999996</v>
@@ -25007,27 +25032,27 @@
         <v>3</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B7" s="11">
         <v>5.0999999999999996</v>
@@ -25036,27 +25061,27 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="11">
         <v>4.0999999999999996</v>
@@ -25065,13 +25090,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J8" s="11">
         <v>7446</v>
@@ -25080,18 +25105,18 @@
         <v>3232</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="11">
         <v>4.0999999999999996</v>
@@ -25100,13 +25125,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="J9" s="11">
         <v>7446</v>
@@ -25115,13 +25140,13 @@
         <v>3232</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -25129,66 +25154,66 @@
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="G13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="Q13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="R13" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="O13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="R13" s="11" t="s">
+      <c r="S13" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="11">
         <v>3.3</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
@@ -25197,10 +25222,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="L14" s="11">
         <v>7446</v>
@@ -25209,7 +25234,7 @@
         <v>3232</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O14" s="11">
         <v>1</v>
@@ -25218,24 +25243,24 @@
         <v>1</v>
       </c>
       <c r="R14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="11">
         <v>3.3</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="G15" s="11">
         <v>1</v>
@@ -25244,10 +25269,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="L15" s="11">
         <v>7446</v>
@@ -25256,7 +25281,7 @@
         <v>3232</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O15" s="11">
         <v>2</v>
@@ -25265,24 +25290,24 @@
         <v>2</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="11">
         <v>3.3</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -25291,10 +25316,10 @@
         <v>2</v>
       </c>
       <c r="J16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="L16" s="11">
         <v>0</v>
@@ -25306,15 +25331,15 @@
         <v>3</v>
       </c>
       <c r="R16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="11">
         <v>5.0999999999999996</v>
@@ -25323,7 +25348,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G17" s="11">
         <v>2</v>
@@ -25331,7 +25356,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="11">
         <v>5.0999999999999996</v>
@@ -25340,7 +25365,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="11">
         <v>2</v>
@@ -25348,7 +25373,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="11">
         <v>4.0999999999999996</v>
@@ -25357,7 +25382,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="11">
         <v>1</v>
@@ -25365,7 +25390,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="11">
         <v>4.0999999999999996</v>
@@ -25374,7 +25399,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" s="11">
         <v>1</v>
@@ -25382,24 +25407,24 @@
     </row>
     <row r="29" spans="1:13">
       <c r="J29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="M29" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="J30" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="7" r:id="rId1"/>
-    <sheet name="Company Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Site Table" sheetId="4" r:id="rId3"/>
-    <sheet name="Item Table" sheetId="5" r:id="rId4"/>
-    <sheet name="RMA_ITEM table" sheetId="6" r:id="rId5"/>
-    <sheet name="RMA Table" sheetId="1" r:id="rId6"/>
-    <sheet name="Case Table" sheetId="3" r:id="rId7"/>
-    <sheet name="Goal" sheetId="8" r:id="rId8"/>
-    <sheet name="정규화" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="Company Table" sheetId="2" r:id="rId3"/>
+    <sheet name="Site Table" sheetId="4" r:id="rId4"/>
+    <sheet name="Item Table" sheetId="5" r:id="rId5"/>
+    <sheet name="RMA_ITEM table" sheetId="6" r:id="rId6"/>
+    <sheet name="RMA Table" sheetId="1" r:id="rId7"/>
+    <sheet name="Case Table" sheetId="3" r:id="rId8"/>
+    <sheet name="Goal" sheetId="8" r:id="rId9"/>
+    <sheet name="정규화" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="640">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2098,35 +2099,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RMA 정보 저장할때 날짜 저장될수 있도록.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA 추가한 형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">같은 아이템이 두번 나갈수도있으니까, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시리얼 + RMA넘버가 primary key </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> user_ID_Table (</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  id CHAR(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF880000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (id)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  passWord VAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB00040"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(255) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF880000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 첨부 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RMA 정보 저장할때 날짜 저장될수 있도록.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DA 추가한 형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">같은 아이템이 두번 나갈수도있으니까, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시리얼 + RMA넘버가 primary key </t>
+    <t xml:space="preserve">원하는 형태로 프린트 할수 있는 기능. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2134,7 +2367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2175,6 +2408,37 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000A19"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFB00040"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF666666"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF880000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2201,7 +2465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2240,6 +2504,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2610,13 +2880,642 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A2:S30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="18.25" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" ht="29.25" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="11">
+        <v>7446</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3232</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="11">
+        <v>7446</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3232</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="11">
+        <v>7446</v>
+      </c>
+      <c r="K5" s="11">
+        <v>3232</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="11">
+        <v>7446</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3232</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="11">
+        <v>7446</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3232</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" s="11">
+        <v>7446</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3232</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>1</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" s="11">
+        <v>7446</v>
+      </c>
+      <c r="M15" s="11">
+        <v>3232</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="J29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="J30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2713,7 +3612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K16"/>
@@ -2819,7 +3718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D417"/>
@@ -7707,12 +8606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:XFD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7742,7 +8641,7 @@
         <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:16384">
@@ -7753,7 +8652,7 @@
         <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
@@ -7782,12 +8681,12 @@
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:16384">
@@ -24243,7 +25142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K33"/>
@@ -24325,10 +25224,10 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" t="s">
         <v>624</v>
-      </c>
-      <c r="B4" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -24445,7 +25344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C2"/>
@@ -24485,14 +25384,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="A32:XFD32"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -24766,82 +25665,101 @@
         <v>42867</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" customHeight="1">
-      <c r="C34" s="6" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1">
+      <c r="A32" s="7">
+        <v>42892</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="B33" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="C35" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
-      <c r="A35" s="7">
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="A36" s="7">
         <v>42816</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
-      <c r="B36" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
       <c r="B37" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1">
       <c r="B39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1">
+      <c r="B40" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
-      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1">
       <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1">
-      <c r="A42" s="7">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="A43" s="7">
         <v>42817</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
-      <c r="B43" s="8" t="s">
+    <row r="44" spans="1:3" ht="30" customHeight="1">
+      <c r="B44" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -24850,586 +25768,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:B10 B12 B17 B15 B33:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B10 B12 B17 B15 B34:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A2:S30"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="16384" width="18.25" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" s="11">
-        <v>7446</v>
-      </c>
-      <c r="K3" s="11">
-        <v>3232</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J4" s="11">
-        <v>7446</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3232</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="11">
-        <v>7446</v>
-      </c>
-      <c r="K5" s="11">
-        <v>3232</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="11">
-        <v>7446</v>
-      </c>
-      <c r="K8" s="11">
-        <v>3232</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="11">
-        <v>7446</v>
-      </c>
-      <c r="K9" s="11">
-        <v>3232</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" s="11">
-        <v>7446</v>
-      </c>
-      <c r="M14" s="11">
-        <v>3232</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="O14" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>1</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="11">
-        <v>7446</v>
-      </c>
-      <c r="M15" s="11">
-        <v>3232</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>2</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="11">
-        <v>3.3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
-        <v>2</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>3</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C17" s="11">
-        <v>3</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="11">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="J29" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="J30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>
--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="22200" windowHeight="6480" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="User Info" sheetId="10" r:id="rId2"/>
     <sheet name="Company Table" sheetId="2" r:id="rId3"/>
     <sheet name="Site Table" sheetId="4" r:id="rId4"/>
     <sheet name="Item Table" sheetId="5" r:id="rId5"/>
     <sheet name="RMA_ITEM table" sheetId="6" r:id="rId6"/>
     <sheet name="RMA Table" sheetId="1" r:id="rId7"/>
-    <sheet name="Case Table" sheetId="3" r:id="rId8"/>
-    <sheet name="Goal" sheetId="8" r:id="rId9"/>
-    <sheet name="정규화" sheetId="9" r:id="rId10"/>
+    <sheet name="AttachFileInfo" sheetId="11" r:id="rId8"/>
+    <sheet name="Case Table" sheetId="3" r:id="rId9"/>
+    <sheet name="Goal" sheetId="8" r:id="rId10"/>
+    <sheet name="정규화" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="650">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2360,6 +2361,230 @@
   </si>
   <si>
     <t xml:space="preserve">원하는 형태로 프린트 할수 있는 기능. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Attached_File_Info (</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  rmaNumber CHAR(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF666666"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF880000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  fileName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB00040"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(100) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF880000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>) ENGINE=InnoDB DEFAULT CHARSET=utf8;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  fileIndex int(11) auto_increment,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000A19"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (`fileIndex`)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">완료. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이콘 표시하는 기능 추가 바람. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2882,6 +3107,401 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="66.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="9"/>
+    <col min="5" max="5" width="8.75" style="6"/>
+    <col min="6" max="6" width="47.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.25" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1">
+      <c r="C1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="7">
+        <v>42817</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="7">
+        <v>42818</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="7">
+        <v>42825</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" s="7">
+        <v>42846</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" s="7">
+        <v>42857</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1">
+      <c r="A23" s="7">
+        <v>42858</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="B24" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="B25" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1">
+      <c r="B26" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="B27" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1">
+      <c r="B28" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" s="7">
+        <v>42865</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1">
+      <c r="A31" s="7">
+        <v>42867</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1">
+      <c r="A32" s="7">
+        <v>42892</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1">
+      <c r="B33" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="C35" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1">
+      <c r="A36" s="7">
+        <v>42816</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1">
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1">
+      <c r="A43" s="7">
+        <v>42817</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1">
+      <c r="B44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B1:B10 B12 B17 B15 B34:B1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A2:S30"/>
   <sheetViews>
@@ -3618,7 +4238,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25147,8 +25767,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25346,6 +25966,66 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B6:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="13" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -25382,393 +26062,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="9"/>
-    <col min="5" max="5" width="8.75" style="6"/>
-    <col min="6" max="6" width="47.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="C1" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="7">
-        <v>42816</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="B5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="7">
-        <v>42817</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="7">
-        <v>42818</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="7">
-        <v>42825</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1">
-      <c r="A18" s="7">
-        <v>42846</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
-      <c r="B19" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1">
-      <c r="A21" s="7">
-        <v>42857</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1">
-      <c r="A23" s="7">
-        <v>42858</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1">
-      <c r="B24" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1">
-      <c r="B25" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1">
-      <c r="B26" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1">
-      <c r="B27" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1">
-      <c r="B28" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1">
-      <c r="A30" s="7">
-        <v>42865</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1">
-      <c r="A31" s="7">
-        <v>42867</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1">
-      <c r="A32" s="7">
-        <v>42892</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
-      <c r="B33" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
-      <c r="C35" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
-      <c r="A36" s="7">
-        <v>42816</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1">
-      <c r="B37" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
-      <c r="B40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1">
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
-      <c r="A43" s="7">
-        <v>42817</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1">
-      <c r="B44" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B1:B10 B12 B17 B15 B34:B1048576" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="661">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2585,6 +2585,50 @@
   </si>
   <si>
     <t xml:space="preserve">아이콘 표시하는 기능 추가 바람. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">불러오기가 안. 됨 ㅋ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">완료. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history panel에 표시되는 레이블 형식 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첨부파일이 저장되어있을때 티내는 방법.. 표시 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히스토리 패널 색상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMA 테이블에 로그인 ID함께 저장.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3108,11 +3152,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -3369,6 +3413,12 @@
       <c r="C28" s="6" t="s">
         <v>619</v>
       </c>
+      <c r="D28" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
       <c r="A30" s="7">
@@ -3380,6 +3430,9 @@
       <c r="C30" s="6" t="s">
         <v>621</v>
       </c>
+      <c r="D30" s="9" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1">
       <c r="A31" s="7">
@@ -3391,6 +3444,9 @@
       <c r="C31" s="6" t="s">
         <v>622</v>
       </c>
+      <c r="D31" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1">
       <c r="A32" s="7">
@@ -3409,84 +3465,122 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" customHeight="1">
+    <row r="33" spans="1:4" ht="30" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>638</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" customHeight="1">
+      <c r="D33" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" customHeight="1">
+      <c r="A35" s="7">
+        <v>42902</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>653</v>
+      </c>
       <c r="C35" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" customHeight="1">
+      <c r="B36" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1">
+      <c r="C43" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" customHeight="1">
-      <c r="A36" s="7">
+    <row r="44" spans="1:4" ht="30" customHeight="1">
+      <c r="A44" s="7">
         <v>42816</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" customHeight="1">
-      <c r="B37" s="8" t="s">
+    <row r="45" spans="1:4" ht="30" customHeight="1">
+      <c r="B45" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" customHeight="1">
-      <c r="B38" s="8" t="s">
+    <row r="46" spans="1:4" ht="30" customHeight="1">
+      <c r="B46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" customHeight="1">
-      <c r="B39" s="8" t="s">
+    <row r="47" spans="1:4" ht="30" customHeight="1">
+      <c r="B47" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" customHeight="1">
-      <c r="B40" s="8" t="s">
+    <row r="48" spans="1:4" ht="30" customHeight="1">
+      <c r="B48" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" customHeight="1">
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="1:3" ht="30" customHeight="1">
-      <c r="C42" s="10"/>
-    </row>
-    <row r="43" spans="1:3" ht="30" customHeight="1">
-      <c r="A43" s="7">
+    <row r="49" spans="1:3" ht="30" customHeight="1">
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1">
+      <c r="C50" s="10"/>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1">
+      <c r="A51" s="7">
         <v>42817</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" customHeight="1">
-      <c r="B44" s="8" t="s">
+    <row r="52" spans="1:3" ht="30" customHeight="1">
+      <c r="B52" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3495,7 +3589,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:B10 B12 B17 B15 B34:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B10 B12 B17 B15 B42:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="663">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2629,6 +2629,14 @@
   </si>
   <si>
     <t>RMA 테이블에 로그인 ID함께 저장.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">List만들어서 거기다가 파일 이름 추가함. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3156,7 +3164,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -3465,7 +3473,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30" customHeight="1">
+    <row r="33" spans="1:6" ht="30" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>638</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
       <c r="A35" s="7">
         <v>42902</v>
       </c>
@@ -3487,15 +3495,21 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1">
+    <row r="36" spans="1:6" ht="30" customHeight="1">
       <c r="B36" s="8" t="s">
         <v>655</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1">
+      <c r="D36" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1">
       <c r="B37" s="8" t="s">
         <v>657</v>
       </c>
@@ -3503,7 +3517,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1">
+    <row r="38" spans="1:6" ht="30" customHeight="1">
       <c r="B38" s="8" t="s">
         <v>659</v>
       </c>
@@ -3511,12 +3525,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30" customHeight="1">
+    <row r="43" spans="1:6" ht="30" customHeight="1">
       <c r="C43" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" customHeight="1">
+    <row r="44" spans="1:6" ht="30" customHeight="1">
       <c r="A44" s="7">
         <v>42816</v>
       </c>
@@ -3527,7 +3541,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1">
+    <row r="45" spans="1:6" ht="30" customHeight="1">
       <c r="B45" s="8" t="s">
         <v>109</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1">
+    <row r="46" spans="1:6" ht="30" customHeight="1">
       <c r="B46" s="8" t="s">
         <v>111</v>
       </c>
@@ -3543,7 +3557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1">
+    <row r="47" spans="1:6" ht="30" customHeight="1">
       <c r="B47" s="8" t="s">
         <v>112</v>
       </c>
@@ -3551,7 +3565,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1">
+    <row r="48" spans="1:6" ht="30" customHeight="1">
       <c r="B48" s="8" t="s">
         <v>113</v>
       </c>

--- a/bin/Database Structure.xlsx
+++ b/bin/Database Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="669">
   <si>
     <t>RMA number</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2637,6 +2637,30 @@
   </si>
   <si>
     <t xml:space="preserve">List만들어서 거기다가 파일 이름 추가함. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMA 테이블에 작성자가 저장되도록 조치.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 패스워드 암호화. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ID를 표시할수 있는 GUI공간 부족. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3160,11 +3184,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
@@ -3473,7 +3497,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1">
+    <row r="33" spans="1:7" ht="30" customHeight="1">
       <c r="B33" s="8" t="s">
         <v>638</v>
       </c>
@@ -3484,7 +3508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1">
+    <row r="35" spans="1:7" ht="30" customHeight="1">
       <c r="A35" s="7">
         <v>42902</v>
       </c>
@@ -3495,7 +3519,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1">
+    <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="B36" s="8" t="s">
         <v>655</v>
       </c>
@@ -3509,7 +3533,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1">
+    <row r="37" spans="1:7" ht="30" customHeight="1">
       <c r="B37" s="8" t="s">
         <v>657</v>
       </c>
@@ -3517,7 +3541,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
+    <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="B38" s="8" t="s">
         <v>659</v>
       </c>
@@ -3525,76 +3549,101 @@
         <v>660</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1">
-      <c r="C43" s="6" t="s">
+    <row r="40" spans="1:7" ht="30" customHeight="1">
+      <c r="A40" s="7">
+        <v>42915</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="B41" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="C44" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1">
-      <c r="A44" s="7">
+    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="A45" s="7">
         <v>42816</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1">
-      <c r="B45" s="8" t="s">
+    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="B46" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1">
-      <c r="B46" s="8" t="s">
+    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="B47" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1">
-      <c r="B47" s="8" t="s">
+    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="B48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
-      <c r="B48" s="8" t="s">
+    <row r="49" spans="1:3" ht="30" customHeight="1">
+      <c r="B49" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" customHeight="1">
-      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" ht="30" customHeight="1">
       <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" ht="30" customHeight="1">
-      <c r="A51" s="7">
+      <c r="C51" s="10"/>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1">
+      <c r="A52" s="7">
         <v>42817</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" customHeight="1">
-      <c r="B52" s="8" t="s">
+    <row r="53" spans="1:3" ht="30" customHeight="1">
+      <c r="B53" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3603,7 +3652,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:B10 B12 B17 B15 B42:B1048576" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:B10 B12 B17 B15 B43:B1048576" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
